--- a/cv32e40p/docs/VerifPlans/Simulation/micro_architecture/CV32E40P_FPU_register_file.xlsx
+++ b/cv32e40p/docs/VerifPlans/Simulation/micro_architecture/CV32E40P_FPU_register_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dolphinintegrationfr.sharepoint.com/sites/PANTHER/Documents partages/General/CV32E40P/Verification/v2_VerifPlans/Simulation/micro_architecture/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\git_repos\corev-v-verif\cv32e40p\docs\VerifPlans\Simulation\micro_architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{7CBB5742-67F8-415C-BE67-FC82BFE62DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC659D25-5C31-42D7-998E-3053D43CE0EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A2D203-B057-48F8-9546-569A08DE2A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{14752F24-4541-4DC9-AD49-103B5B2663A8}"/>
+    <workbookView xWindow="38280" yWindow="3705" windowWidth="29040" windowHeight="15840" xr2:uid="{14752F24-4541-4DC9-AD49-103B5B2663A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Check against ISS</t>
   </si>
   <si>
     <t>Constrained-Random</t>
@@ -119,32 +116,28 @@
     <t>Race between integer and floating point RF access</t>
   </si>
   <si>
-    <t>Test Coverage</t>
-  </si>
-  <si>
     <t>Zfinx uses the integer registers</t>
   </si>
   <si>
     <t>Zfinx</t>
   </si>
   <si>
-    <t xml:space="preserve">Mix Integer/Floating forwarding paths:
-- Int Store to a register, then F instruction using the same register index
--  Float Store to a register, then I instruction using the same register
-- Float Store to a register, then Int store to the same register 
-- Int Store to a register, then Float store to the same register 
-- Float Store to a register, then Int Load to the same register 
-- Int Store to a register, then Float Load to the same register 
+    <t>Check against RM</t>
+  </si>
+  <si>
+    <t>Mix Integer/Floating forwarding paths:
+- Integer operation uses x_i as rD, the next floating point instruction uses f_i as a source
+- fp operation uses f_i as rD, the next integer instruction uses x_i as a source
+- Integer operation uses x_i as rD, the next float store to memory instructions uses f_i as a source
+- fp operation uses f_i as rD, the next integer store to memory instructions uses x_i as a source  
+-  Integer load uses x_i as rD, the next float instruction uses f_i as a source
+- fp load uses f_i as rD, the next integer instruction uses x_i as a source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- fp instruction has been preceeded with an integer load using one of the fp instruction operand
+- fp instruction has been followed by an integer store using the fp destination register as a source
+- All fp instructions have been preceeded by a non-fp instruction using one of the fp instruction operand
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mix integer arithmetic / floating point instructions / load-store with Zfinx enabled </t>
-  </si>
-  <si>
-    <t>floating_point_integer_mix_test</t>
-  </si>
-  <si>
-    <t>cg_rf_float_regs</t>
   </si>
 </sst>
 </file>
@@ -195,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -232,6 +225,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -564,7 +560,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
@@ -610,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>8</v>
@@ -618,86 +614,80 @@
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
@@ -718,6 +708,34 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed">
+      <UserInfo>
+        <DisplayName>Pascal Gouedo</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Yoann Pruvost</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Xavier Aubert</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbd820e2-9c8a-4c01-9a9c-6b4c26777899">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFCF9BE3DDC69D46817A851BEC5550B1" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="6f429ff05de3a495de36a912eeee1367">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" xmlns:ns3="51aa521f-7cbd-47c5-afee-4a8147a04eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dba9ee4a9862521e056f2186065b8ec" ns2:_="" ns3:_="">
     <xsd:import namespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
@@ -948,34 +966,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed">
-      <UserInfo>
-        <DisplayName>Pascal Gouedo</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Yoann Pruvost</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Xavier Aubert</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbd820e2-9c8a-4c01-9a9c-6b4c26777899">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{451610C9-488E-4DA5-87FC-031A1DE60AC1}">
   <ds:schemaRefs>
@@ -985,6 +975,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FD7C40-DF39-4B57-9089-1BF2E95658E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
+    <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC626F7-33E3-4CBB-9C19-EC8336781DCC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1001,8 +1002,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FD7C40-DF39-4B57-9089-1BF2E95658E5}"/>
 </file>
--- a/cv32e40p/docs/VerifPlans/Simulation/micro_architecture/CV32E40P_FPU_register_file.xlsx
+++ b/cv32e40p/docs/VerifPlans/Simulation/micro_architecture/CV32E40P_FPU_register_file.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t xml:space="preserve">Requirement Location</t>
   </si>
@@ -108,6 +108,36 @@
   </si>
   <si>
     <t xml:space="preserve">Functional Coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corev_rand_fp* tests</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RISCV_coverage_pkg/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RISCV_coverage__1/&lt;f-instr&gt;_s_cg</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1) functional covergae for f-ext Is captured by using ISA cov model from Imperas ref model
+2) bit toggling is not captured due to large impact of sim performance when such cp is enabled</t>
   </si>
   <si>
     <t xml:space="preserve">Race between integer and floating point RF access</t>
@@ -125,16 +155,8 @@
 - fp load uses f_i as rD, the next integer instruction uses x_i as a source</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">corev_fp_instr_data_fwd_test
+    <t xml:space="preserve">corev_rand_fp_instr_data_fwd_test
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Zfinx</t>
@@ -149,7 +171,12 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">corev_fp_instr_data_fwd_test  </t>
+    <t xml:space="preserve">corev_rand_fp_instr_data_fwd_test
+corev_rand_fp_instr_mlt_cyc_test
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updates made on 2024_0311</t>
   </si>
 </sst>
 </file>
@@ -159,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -191,26 +218,53 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -239,57 +293,61 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -301,6 +359,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -309,33 +427,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="47.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="38.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="38.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="32.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="40.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="49.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="10.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -344,7 +463,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -353,107 +472,121 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+    <row r="2" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="I2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" s="11" customFormat="true" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="8" t="s">
+    <row r="3" customFormat="false" ht="180.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="I3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="I4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/cv32e40p/docs/VerifPlans/Simulation/micro_architecture/CV32E40P_FPU_register_file.xlsx
+++ b/cv32e40p/docs/VerifPlans/Simulation/micro_architecture/CV32E40P_FPU_register_file.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t xml:space="preserve">Requirement Location</t>
   </si>
@@ -108,36 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">Functional Coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corev_rand_fp* tests</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">RISCV_coverage_pkg/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">RISCV_coverage__1/&lt;f-instr&gt;_s_cg</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1) functional covergae for f-ext Is captured by using ISA cov model from Imperas ref model
-2) bit toggling is not captured due to large impact of sim performance when such cp is enabled</t>
   </si>
   <si>
     <t xml:space="preserve">Race between integer and floating point RF access</t>
@@ -155,8 +125,16 @@
 - fp load uses f_i as rD, the next integer instruction uses x_i as a source</t>
   </si>
   <si>
-    <t xml:space="preserve">corev_rand_fp_instr_data_fwd_test
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">corev_fp_instr_data_fwd_test
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Zfinx</t>
@@ -171,12 +149,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">corev_rand_fp_instr_data_fwd_test
-corev_rand_fp_instr_mlt_cyc_test
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updates made on 2024_0311</t>
+    <t xml:space="preserve">corev_fp_instr_data_fwd_test  </t>
   </si>
 </sst>
 </file>
@@ -186,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -218,41 +191,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -260,13 +213,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -293,61 +239,57 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -359,66 +301,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C7DC"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -427,34 +309,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="47.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="38.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="32.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="40.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="49.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="38.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -463,7 +344,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -472,121 +353,107 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" s="11" customFormat="true" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="180.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
